--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Ra54500140c7f4ca3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R48f8d10e566547bd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R48f8d10e566547bd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re6d476f759964224"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re6d476f759964224"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R306a9f79c04a45a9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R306a9f79c04a45a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R086b08f0ffa841d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R086b08f0ffa841d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R1aa2751daa24448c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R1aa2751daa24448c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rccb5bbdb6f954ccd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rccb5bbdb6f954ccd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R687627355c3b4af3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R687627355c3b4af3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re204923b3480454c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Re204923b3480454c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R10fe91b0e8ed4e80"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R10fe91b0e8ed4e80"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf155a32d12214658"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf155a32d12214658"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Raac3150379c447a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Raac3150379c447a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R96a6e52c4787408f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/017_ReusableStyles.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="R96a6e52c4787408f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ReusableStyles" sheetId="1" r:id="Rf14bae47d29f43e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
